--- a/src/analysis/Options-Open-Interest-Analysis.xlsx
+++ b/src/analysis/Options-Open-Interest-Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="0" windowWidth="25360" windowHeight="15760"/>
+    <workbookView xWindow="12240" yWindow="680" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN OI" sheetId="3" r:id="rId1"/>
@@ -1199,11 +1199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123396232"/>
-        <c:axId val="-2123393224"/>
+        <c:axId val="2115862072"/>
+        <c:axId val="2116326888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123396232"/>
+        <c:axId val="2115862072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123393224"/>
+        <c:crossAx val="2116326888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123393224"/>
+        <c:axId val="2116326888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123396232"/>
+        <c:crossAx val="2115862072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,11 +1608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2136361400"/>
-        <c:axId val="-2124067064"/>
+        <c:axId val="2115904104"/>
+        <c:axId val="2115907112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136361400"/>
+        <c:axId val="2115904104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124067064"/>
+        <c:crossAx val="2115907112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124067064"/>
+        <c:axId val="2115907112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136361400"/>
+        <c:crossAx val="2115904104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2014,11 +2014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123728840"/>
-        <c:axId val="-2136395160"/>
+        <c:axId val="2115951352"/>
+        <c:axId val="2115954360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123728840"/>
+        <c:axId val="2115951352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136395160"/>
+        <c:crossAx val="2115954360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2046,7 +2046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136395160"/>
+        <c:axId val="2115954360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123728840"/>
+        <c:crossAx val="2115951352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2412,11 +2412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123771352"/>
-        <c:axId val="-2123717016"/>
+        <c:axId val="2114646568"/>
+        <c:axId val="2114649544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123771352"/>
+        <c:axId val="2114646568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123717016"/>
+        <c:crossAx val="2114649544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2444,7 +2444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123717016"/>
+        <c:axId val="2114649544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123771352"/>
+        <c:crossAx val="2114646568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2530,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2566,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2602,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3098,7 +3098,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="34">
         <f ca="1">TODAY()</f>
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
